--- a/2ESA1/data/Books.xlsx
+++ b/2ESA1/data/Books.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selinium\2ESA1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\framework\2ESA1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6286D8-1E59-4F02-ABBE-D067BC2BAD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E425B5-87AE-40C5-9EB6-55B6D47BA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC02AFE1-6E18-4882-BD68-7164606D9D26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FC02AFE1-6E18-4882-BD68-7164606D9D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="valid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>UsernamePassword</t>
   </si>
@@ -78,16 +79,36 @@
   </si>
   <si>
     <t>jhinga</t>
+  </si>
+  <si>
+    <t>usename</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Selenium_50</t>
+  </si>
+  <si>
+    <t>Abc@123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,13 +131,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FF00F3-9BCC-44F4-ADCA-0C6AAC237C71}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -501,4 +525,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52DE4B5-4C51-4BBD-B09E-5EC3A9A0051D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F3A35FB5-3591-47CB-91A7-050B6A0A86D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2ESA1/data/Books.xlsx
+++ b/2ESA1/data/Books.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\framework\2ESA1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E425B5-87AE-40C5-9EB6-55B6D47BA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43338B2E-5853-427E-952E-5C221D21C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FC02AFE1-6E18-4882-BD68-7164606D9D26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FC02AFE1-6E18-4882-BD68-7164606D9D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="valid" sheetId="2" r:id="rId2"/>
+    <sheet name="Ebay" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>UsernamePassword</t>
   </si>
@@ -91,6 +92,105 @@
   </si>
   <si>
     <t>Abc@123456</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>hrhhdd</t>
+  </si>
+  <si>
+    <t>jjsv@gmail.com</t>
+  </si>
+  <si>
+    <t>shhsd</t>
+  </si>
+  <si>
+    <t>jakks</t>
+  </si>
+  <si>
+    <t>dkesjjss</t>
+  </si>
+  <si>
+    <t>ksjjwjjsjs</t>
+  </si>
+  <si>
+    <t>kehjssjjs</t>
+  </si>
+  <si>
+    <t>kwjskdlww</t>
+  </si>
+  <si>
+    <t>kksjsjjdkkd</t>
+  </si>
+  <si>
+    <t>kskejjjd</t>
+  </si>
+  <si>
+    <t>kskskend</t>
+  </si>
+  <si>
+    <t>uuennns</t>
+  </si>
+  <si>
+    <t>kkshjjd</t>
+  </si>
+  <si>
+    <t>iiwskksks</t>
+  </si>
+  <si>
+    <t>kkswjwj</t>
+  </si>
+  <si>
+    <t>wsskkdkkd</t>
+  </si>
+  <si>
+    <t>djdjjdd</t>
+  </si>
+  <si>
+    <t>dejjeje</t>
+  </si>
+  <si>
+    <t>jjshjs@gmail.com</t>
+  </si>
+  <si>
+    <t>hsjjdd@gmail.com</t>
+  </si>
+  <si>
+    <t>hddhdj4125</t>
+  </si>
+  <si>
+    <t>hsjks5266</t>
+  </si>
+  <si>
+    <t>djjdjj78216</t>
+  </si>
+  <si>
+    <t>jkskkk65542</t>
+  </si>
+  <si>
+    <t>klsllshs684651</t>
+  </si>
+  <si>
+    <t>keyhs56746</t>
+  </si>
+  <si>
+    <t>lsjkkeudj6543</t>
+  </si>
+  <si>
+    <t>jkskshhs64232</t>
+  </si>
+  <si>
+    <t>hhxgdhd6523</t>
   </si>
 </sst>
 </file>
@@ -135,9 +235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52DE4B5-4C51-4BBD-B09E-5EC3A9A0051D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -563,4 +669,171 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DACFBD-7603-4A8A-A83F-D2E5C3849A49}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A9027C0-297F-43B7-8FDB-BF60E25B8625}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{583BEDCE-480E-4E48-A101-561774104ECC}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{E9A29A22-9336-4920-A909-C9DE2EC8209E}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{ABE024E7-FBB5-4754-ABB0-291A62C04CD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2ESA1/data/Books.xlsx
+++ b/2ESA1/data/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\framework\2ESA1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43338B2E-5853-427E-952E-5C221D21C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC74435-04FD-403A-A5F1-D6496238F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FC02AFE1-6E18-4882-BD68-7164606D9D26}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>UsernamePassword</t>
   </si>
@@ -166,31 +166,52 @@
     <t>hsjjdd@gmail.com</t>
   </si>
   <si>
-    <t>hddhdj4125</t>
-  </si>
-  <si>
-    <t>hsjks5266</t>
-  </si>
-  <si>
-    <t>djjdjj78216</t>
-  </si>
-  <si>
-    <t>jkskkk65542</t>
-  </si>
-  <si>
-    <t>klsllshs684651</t>
-  </si>
-  <si>
-    <t>keyhs56746</t>
-  </si>
-  <si>
-    <t>lsjkkeudj6543</t>
-  </si>
-  <si>
-    <t>jkskshhs64232</t>
-  </si>
-  <si>
-    <t>hhxgdhd6523</t>
+    <t>jsdsv@gmail.com</t>
+  </si>
+  <si>
+    <t>jdsv@gmail.com</t>
+  </si>
+  <si>
+    <t>jues@gmail.com</t>
+  </si>
+  <si>
+    <t>agds@gmail.com</t>
+  </si>
+  <si>
+    <t>rfsda@gmail.com</t>
+  </si>
+  <si>
+    <t>kjjjsv@gmail.com</t>
+  </si>
+  <si>
+    <t>jkskkk65542!#</t>
+  </si>
+  <si>
+    <t>hsjks526654678@!</t>
+  </si>
+  <si>
+    <t>hddhdj4125#!</t>
+  </si>
+  <si>
+    <t>hhxgdhd6523@#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conform Email</t>
+  </si>
+  <si>
+    <t>klsllshs684651@!</t>
+  </si>
+  <si>
+    <t>keyhs56746#@</t>
+  </si>
+  <si>
+    <t>lsjkkeudj6543&amp;#</t>
+  </si>
+  <si>
+    <t>dwadjaw7821623#@</t>
+  </si>
+  <si>
+    <t>jkskawzhqs64232#@</t>
   </si>
 </sst>
 </file>
@@ -673,21 +694,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DACFBD-7603-4A8A-A83F-D2E5C3849A49}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="3" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,11 +718,14 @@
       <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -711,11 +735,14 @@
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -725,81 +752,99 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -807,13 +852,16 @@
         <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -823,16 +871,39 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A9027C0-297F-43B7-8FDB-BF60E25B8625}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{583BEDCE-480E-4E48-A101-561774104ECC}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{E9A29A22-9336-4920-A909-C9DE2EC8209E}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{ABE024E7-FBB5-4754-ABB0-291A62C04CD5}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1A9027C0-297F-43B7-8FDB-BF60E25B8625}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{583BEDCE-480E-4E48-A101-561774104ECC}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{E9A29A22-9336-4920-A909-C9DE2EC8209E}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{ABE024E7-FBB5-4754-ABB0-291A62C04CD5}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{D9E237BC-9689-4BA9-9068-B922B9E61BFE}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{03AF9987-79E7-4137-8E61-7CB105C7C885}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{F30AEEFA-F200-46C9-BE79-11EEE7A4E2C2}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{478898C2-B932-40A8-9D3E-0B732D03C23E}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{66F41D0D-8FAE-422A-B338-81309C1700C0}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{35FF0964-4702-48D9-B7ED-B7FBD0C58BCB}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{22E8E4DF-592E-4E93-BAC7-6531BBB717E1}"/>
+    <hyperlink ref="E2" r:id="rId12" xr:uid="{BE806659-79D9-4506-9C52-90C751A79F67}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{DE8A213B-909C-429F-9776-3CC36908CC6C}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{D9B682BD-1EE6-48EC-AAFE-3660C0C49A03}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{CB7BBEA9-DE48-468F-B827-4BAA4F0623C0}"/>
+    <hyperlink ref="C3" r:id="rId16" xr:uid="{B2386D5F-75DC-4D99-9897-CFDD2586DB4D}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{7D546E2B-47E2-4E49-952B-DD5A9E5C9424}"/>
+    <hyperlink ref="C6" r:id="rId18" xr:uid="{523E807B-525E-4223-ADFF-20BA70B8B48D}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{A62144E7-C9BB-4A71-A236-9ABAE04487AA}"/>
+    <hyperlink ref="C8" r:id="rId20" xr:uid="{3501C45E-68C8-48FA-BE7E-D71967BE0B40}"/>
+    <hyperlink ref="C4" r:id="rId21" xr:uid="{2E34B8E8-94B9-4374-A6D1-4ADEF9868FA3}"/>
+    <hyperlink ref="E7" r:id="rId22" xr:uid="{4679447A-DA78-4123-9840-E4BDF7608FC2}"/>
+    <hyperlink ref="E8" r:id="rId23" xr:uid="{2961CD52-4F3A-4B47-9A11-3C12EC138D6F}"/>
+    <hyperlink ref="E10" r:id="rId24" xr:uid="{9D10CD30-D063-4A3B-B332-157C28B3E5BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
